--- a/datasets/Testing-Dataset.xlsx
+++ b/datasets/Testing-Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\SE10\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\SDGP-SE10\SDGP-SE10\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05794EF-9A62-46AA-9D51-074591D41FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A46C467-F535-43BD-95E2-64A6C16A1D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7042632-3CB2-456A-A281-77946FF58F64}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Title</t>
   </si>
@@ -74,44 +74,134 @@
     <t>Looper</t>
   </si>
   <si>
-    <t>In the future, time travel has been invented - but it is illegal and only available on the black market. When the mob wants to get rid of someone, they send their target 30 years into the past, where a hitman - a hired gun is waiting to mop up.</t>
-  </si>
-  <si>
     <t>Big Miracle</t>
   </si>
   <si>
-    <t>A small-town news reporter and a Greenpeace volunteer enlist the help of rival superpowers to save three majestic gray whales trapped under the ice of the Arctic Circle.</t>
-  </si>
-  <si>
     <t>21 jump street</t>
   </si>
   <si>
     <t>Project X</t>
   </si>
   <si>
-    <t>Three high school seniors throw a party to make a name for themselves. As the night progresses, things spiral out of control as word of the party spreads. In the end of the movie, the house sat on fire and police comes to settele down the situation</t>
-  </si>
-  <si>
     <t>Her</t>
   </si>
   <si>
-    <t>In the not so distant future, a lonely writer purchases a newly developed operating system designed to meet the user’s every needs. To his surprise, a romantic relationship develops between him and his operating system. He starts to share his daily life, problems with this AI. In the end of the movie he realize that this AI is communicating with not only him but thousands of people like this way.</t>
-  </si>
-  <si>
     <t>Main characters are two high school friends. One is a jock and other one is a nerd. After completing high school they both joined the police after graduating and eventually found themselves riding bicycles in the city park together. They are sent to an undercover team to infiltrate a drug network that is supplying high school pupils with synthetic narcotics because they are young and appear to be students. In the end of the movie they found out their teacher is the drug dealer.</t>
+  </si>
+  <si>
+    <t>The Social Network</t>
+  </si>
+  <si>
+    <t>Founder of Facebook</t>
+  </si>
+  <si>
+    <t>Dr. Dolittle</t>
+  </si>
+  <si>
+    <t>Man can communicate with animals</t>
+  </si>
+  <si>
+    <t>Three high school friends throw a party and the party goes wrong</t>
+  </si>
+  <si>
+    <t>whiplash</t>
+  </si>
+  <si>
+    <t>Young drummer and teacher</t>
+  </si>
+  <si>
+    <t>The wolf of wall street</t>
+  </si>
+  <si>
+    <t>Jordan belfort</t>
+  </si>
+  <si>
+    <t>Black swan</t>
+  </si>
+  <si>
+    <t>Perfectionist female ballet dancer</t>
+  </si>
+  <si>
+    <t>In a near future, a lonely writer develops an unlikely relationship with an operating system designed to meet his every need.</t>
+  </si>
+  <si>
+    <t>127 Hours</t>
+  </si>
+  <si>
+    <t>A hiker trapped his leg under a rock</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Fellowship of the Ring</t>
+  </si>
+  <si>
+    <t>A ring with power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memento </t>
+  </si>
+  <si>
+    <t>A man with short-term memory loss</t>
+  </si>
+  <si>
+    <t>The Pianist</t>
+  </si>
+  <si>
+    <t>A Polish Jewish musician struggles to survive the destruction of the Warsaw ghetto of World War II.</t>
+  </si>
+  <si>
+    <t>The Others</t>
+  </si>
+  <si>
+    <t>A woman who lives in her darkened old family house with her two photosensitive children becomes convinced that the home is haunted.</t>
+  </si>
+  <si>
+    <t>Time loop</t>
+  </si>
+  <si>
+    <t>Whale Rescue</t>
+  </si>
+  <si>
+    <t>Spider man</t>
+  </si>
+  <si>
+    <t>teenager bitten by a spider and get super powers</t>
+  </si>
+  <si>
+    <t>The maze runner</t>
+  </si>
+  <si>
+    <t>Set of teens trapped inside a maze</t>
+  </si>
+  <si>
+    <t>Hotel Transylvania</t>
+  </si>
+  <si>
+    <t>Dracula throws a party for other monsters</t>
+  </si>
+  <si>
+    <t>Annabelle</t>
+  </si>
+  <si>
+    <t>Possesed doll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,8 +224,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FB3F93-33BA-4CC3-A65A-A4C8B9BA1709}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,54 +612,209 @@
         <v>2012</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2012</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2014</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2012</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>2013</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2014</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>2010</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>2010</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>2001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>2002</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>2001</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>2002</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>2014</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>2014</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>